--- a/data/interactions_summary.xlsx
+++ b/data/interactions_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conso\OneDrive\Documents\GitHub\robot-barriers\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC17DD-554F-42E5-8B43-596B6F0D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FC49E3-7122-478F-B207-5470CE548DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="Participant Messages" sheetId="4" r:id="rId4"/>
     <sheet name="Bot Messages" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="676">
   <si>
     <t>participant_id</t>
   </si>
@@ -291,6 +304,69 @@
   </si>
   <si>
     <t>24/04/2024 15:50:30</t>
+  </si>
+  <si>
+    <t>p05011504</t>
+  </si>
+  <si>
+    <t>01/05/2024 15:04:44</t>
+  </si>
+  <si>
+    <t>01/05/2024 15:43:41</t>
+  </si>
+  <si>
+    <t>p05011708</t>
+  </si>
+  <si>
+    <t>01/05/2024 17:08:10</t>
+  </si>
+  <si>
+    <t>01/05/2024 18:31:16</t>
+  </si>
+  <si>
+    <t>p05011842</t>
+  </si>
+  <si>
+    <t>01/05/2024 18:42:05</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:35:25</t>
+  </si>
+  <si>
+    <t>p05021329</t>
+  </si>
+  <si>
+    <t>02/05/2024 13:29:03</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:35:34</t>
+  </si>
+  <si>
+    <t>p05021458</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:58:26</t>
+  </si>
+  <si>
+    <t>02/05/2024 16:07:04</t>
+  </si>
+  <si>
+    <t>p05021659</t>
+  </si>
+  <si>
+    <t>02/05/2024 16:59:14</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:07:03</t>
+  </si>
+  <si>
+    <t>p05021829</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:29:31</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:58:17</t>
   </si>
   <si>
     <t>request_id</t>
@@ -740,6 +816,80 @@
   <si>
     <t xml:space="preserve">what blocks do i need to instantiate a variable
 </t>
+  </si>
+  <si>
+    <t>request_d737122554ed49909c7302a1dfd5f1f6</t>
+  </si>
+  <si>
+    <t>01/05/2024 17:35:29</t>
+  </si>
+  <si>
+    <t>When i add the blocks all it seems to be doing is an infinite loop or some type of loop. When i add the move blocks the robot just stands there doing nothing , but I have a feeling i know what to do</t>
+  </si>
+  <si>
+    <t>request_4e67f5799a4648a0b77784a0b4c9020f</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:24:03</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:32:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the robot is stuck in a position and it is not moving no matter how many times i run
+</t>
+  </si>
+  <si>
+    <t>request_f7856461827140e390f0c0c4c61b1df8</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:08:25</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:23:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i want the robot to search for the dispenser at the bottom but if there isnt it should move to the different direction when all the dispenser are taken care of it should stop im not sure what the boolean value do
+</t>
+  </si>
+  <si>
+    <t>request_a95ffae9299c4767a85c125cd4febfb1</t>
+  </si>
+  <si>
+    <t>02/05/2024 13:59:41</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:18:28</t>
+  </si>
+  <si>
+    <t>I have something that I want to run, but whenever I run &amp; expect it to prompt the user, I get an error saying that RGX is not connect?</t>
+  </si>
+  <si>
+    <t>request_0f1c5d8534bd4054beb3b1dbc0d3914b</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:56:14</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:50:02</t>
+  </si>
+  <si>
+    <t>looing for the signal to receive touch from flex screen</t>
+  </si>
+  <si>
+    <t>request_36506c2b67754da8a2210ba45e5b62be</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:37:07</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:47:20</t>
+  </si>
+  <si>
+    <t>Can you explain the move, stop and wait, and procedures</t>
+  </si>
+  <si>
+    <t>Wizard</t>
   </si>
   <si>
     <t>interaction_id</t>
@@ -1784,6 +1934,265 @@
 </t>
   </si>
   <si>
+    <t>interaction_b905fc111ee44c798ecdd417b53786fc</t>
+  </si>
+  <si>
+    <t>01/05/2024 17:35:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+__Participant__: 
+__Bot__: Hello, I'm Isaac, and I'm here to assist you with your robot programming task. 
+It sounds like you're experiencing a couple of different issues. Let's tackle them one at a time.
+First, regarding the infinite loop, it's important to check the conditions of your loop. If you're using the "Repeat &lt;number&gt; times" block, make sure the number is not too high or set to an infinite value. If you're using the "Repeat &lt;while or until&gt; &lt;condition&gt;" block, ensure that the condition will eventually be met to break the loop. 
+Second, about the robot not moving, ensure that you've correctly set up your move blocks. The "Move &lt;tool&gt; &lt;speed&gt; to &lt;somewhere&gt;" block requires a tool, speed, and position as input. Make sure you've selected the correct tool and speed, and that the position you've chosen is reachable by the robot. 
+If you've done all of this and the robot still isn't moving, it's possible that there's an issue with the order of your blocks or the logic of your program. Remember to use the Apply button to save your changes every time you update your program.
+If you're still having trouble, could you please provide more details about your program? That way, I can give more specific advice.
+__Bot__: 1. How can I use the ABB Wizard Easy Programming Tool to program the ABB CRB 15000 robot?
+Answer: The ABB Wizard Easy Programming Tool is a block-based programming interface that you can use to program the ABB CRB 15000 robot. You can use different categories of blocks to create your program. These categories include Message, Move, Stop &amp; Wait, Procedures, Loops, Signals, Logic, and Variable. 
+For example, you can use the Move category to move the robot. Every movement block receives a tool, speed, and position as input. You can use the Procedures category to define and call custom functions in your program. There are also blocks for loops, signals, and logic operations. 
+Remember to use the Apply button to save your changes every time you make an update in your program. To run and stop the program, use the hard buttons available on the FlexPendant.
+2. How can I use the OnRobot smart gripper with the ABB Wizard Easy Programming Tool?
+Answer: The OnRobot smart gripper can be controlled using the Procedures category in the ABB Wizard Easy Programming Tool. There are three custom procedures available for the gripper: OpenGripper, CloseGripper, and RestartGripper. You can use these procedures to open, close, and restart the gripper as needed in your program. 
+3. What should I do if I encounter a problem that I can't solve with the programming language?
+Answer: If you encounter a problem that you can't solve with the ABB Wizard Easy Programming Tool, you should request clarification from the proctor of the experiment. They will be able to provide further assistance.
+__Participant__: How can I make the robot take a user's input?
+__Bot__: You can use the blocks under the Message category in the ABB Wizard Easy Programming Tool to take a user's input. There are two blocks that can be used for this purpose:
+1. "Ask &lt;question&gt; with &lt;answer options&gt;. Save this answer in &lt;numeric variable&gt;": This block is used to ask the user a question with predefined answer options. The user's response is saved in a numeric variable.
+2. "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;": This block is used to ask the user a question that requires a numeric answer. The user's response is saved in a numeric variable.
+Remember to replace the &lt;question&gt;, &lt;answer options&gt;, and &lt;numeric variable&gt; with the appropriate values for your program. After you've added these blocks to your program, make sure to click the Apply button at the top center of the programming environment to save your changes.
+__Participant__: When I press start , the robot does not run. What should I do?
+__Bot__: Based on your description, it seems like the robot is not responding to the start command. Here are a few steps you can take to troubleshoot this issue:
+1. Check your program: Make sure that your program is correctly structured and doesn't contain any errors. The ABB Wizard Easy Programming Tool should highlight any syntax errors or missing blocks in your program.
+2. Apply changes: Remember to press the "Apply" button at the top center of the programming environment after making changes to your program. This will save your changes and update the program that the robot will run.
+3. Check the Event Log: If the robot still doesn't run your program, check the Event Log. This can be found next to the Messages button on the top left corner of the programming environment. The Event Log will contain any error messages or warnings that the robot's operating system has reported.
+4. Restart the program: If there are no errors in your program and the robot still doesn't run, try stopping the program using the stop button on the FlexPendant, and then start it again.
+If you've tried all these steps and the robot still doesn't run your program, please ask the proctor of the experiment for further assistance.
+__Participant__: How can I restart the gripper to be opened?
+__Bot__: You can restart the gripper by using the custom procedure block named "RestartGripper". This block is available under the Procedures category in the ABB Wizard Easy Programming Tool. After calling this procedure, you can open the gripper by calling the "OpenGripper" procedure, also found in the Procedures category. Remember to click the "Apply" button at the top center of the programming environment to save your changes after adding these blocks to your program.
+__Participant__: Why is the robot light red if it just in the center not doing anything?
+__Bot__: The robot's light turning red typically indicates an error or a safety stop. However, in the context of this experiment, participants should not physically interact with the robot. If the robot's light is red and it's not performing any tasks, it might be due to an error in the program. I would recommend checking the Event Log on the FlexPendant to see if there are any error messages. If the issue persists and can't be resolved through the programming language, please request clarification from the proctor of the experiment.
+</t>
+  </si>
+  <si>
+    <t>interaction_cd5dbc5fe00f4f9d8de4837d205be812</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:24:10</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:32:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+__Bot__: Hello, I'm Isaac. I'm here to assist you with your robot programming task.
+If your robot is stuck in a position and not moving, it could be due to a few reasons. Here are some steps you can take to troubleshoot:
+1. Check your program: Make sure that there are no blocks in your program that could be causing the robot to stop or wait indefinitely. For example, a "Stop" block or a "Wait until the robot has reached a stopping point" block could cause the robot to stop moving. 
+2. Check for errors: Use the Event Log button on the top left corner of the programming environment to check for any error messages. If there are any errors, they could be preventing the robot from moving.
+3. Check the robot's position: Make sure that the position you're trying to move the robot to is reachable. If the position is out of the robot's range, it won't be able to move there.
+4. Restart the program: If none of the above steps work, try restarting your program. Use the hard buttons on the FlexPendant to stop the program, and then start it again.
+If you're still having trouble after trying these steps, please let me know so I can assist you further.
+</t>
+  </si>
+  <si>
+    <t>interaction_a909db52c8804497aefb5ba6c0be6c2f</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:08:43</t>
+  </si>
+  <si>
+    <t>01/05/2024 19:22:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+__Bot__: Hello, I'm Isaac, and I'm here to assist you with your robot programming task. 
+To achieve your goal, you can use a combination of the Move, Logic, and Stop &amp; Wait blocks. 
+Firstly, you would need to use the Move block to direct the robot to the location of the dispenser at the bottom. If the dispenser isn't there, you can use the Logic block to instruct the robot to move in a different direction. 
+The Logic block can be used to create conditional statements in your program. For example, you can use it to check if a dispenser is present or not. If the dispenser is not present (which can be represented as a boolean value of 'false'), the robot can be instructed to move in a different direction.
+Boolean values are a type of data that can only be true or false. In your case, you can use a boolean variable to represent whether a dispenser is present or not. If the dispenser is present, the boolean value would be 'true'. If the dispenser is not present, the boolean value would be 'false'.
+Once all the dispensers have been taken care of, you can use the Stop block from the Stop &amp; Wait category to stop the robot.
+Remember to use the Apply button to save your changes every time you make an update in your program solution. If you have any more questions or need further clarification, feel free to ask.
+__Participant__: ok thank you
+__Bot__: You're welcome! If you have any other questions or need further clarification, feel free to ask. I'm here to help!
+__Participant__: what is the name of the booleon variable that checks if the dispenser is there or not
+__Bot__: I'm sorry for the confusion, but the information provided does not specify a boolean variable that checks if a dispenser is present or not. Could you please provide more details or clarify your question?
+__Participant__: what are the current booleon names and what are they meant for
+__Bot__: The ABB Wizard Easy Programming Tool does not have predefined boolean names. Boolean variables are created by the user in the Variable category. The purpose of these boolean variables is to store true or false values, which can be used to control the flow of the program, such as in conditional statements or loops. For example, a boolean variable could be used to indicate whether an object has been successfully picked up by the gripper or not. The specific purpose of each boolean variable depends on how it is used in the program.
+__Participant__: how to reset robot to original position
+__Bot__: To reset the robot to its original position, you would use the "Move" block from the Move category in the ABB Wizard Easy Programming Tool. You would need to specify the tool, speed, and the original position as inputs to the block. 
+Here's how you can do it:
+1. Drag and drop the "Move &lt;tool&gt; &lt;speed&gt; to &lt;somewhere&gt;" block from the Move category into your program.
+2. For the &lt;tool&gt; input, select the tool that the robot is currently using. In this experiment, it should be the OnRobot smart gripper.
+3. For the &lt;speed&gt; input, select the speed at which you want the robot to move. In this experiment, you should not change the speed block.
+4. For the &lt;somewhere&gt; input, select the original position of the robot. The original position should be one of the pre-defined robot positions available in the experiment.
+Remember to click the "Apply" button at the top center of the programming environment to save your changes. 
+Please note that you should not physically interact with the robot or manually teach the robot positions. All the necessary positions are given in advance for this experiment.
+</t>
+  </si>
+  <si>
+    <t>interaction_2a28d5ee85e24db1a40af7667b57e05d</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:04:26</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:05:09</t>
+  </si>
+  <si>
+    <t>interaction_471e900212cb4f94bc8b86200c57e09b</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:05:46</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:17:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+__Bot__: Hello, I'm Isaac, your guide for the ABB Wizard Easy Programming Tool. I'm here to assist you with your programming task.
+Regarding your issue, it seems like you're having trouble with the OnRobot smart gripper, which is referred to as RGX in the error message. This error usually occurs when the gripper is not properly connected or initialized in the program.
+In the ABB Wizard Easy Programming Tool, we have custom blocks under the Procedures category to control the gripper. Before you can use the gripper, you need to initialize it using the RestartGripper procedure. This procedure should be placed at the beginning of your program to ensure the gripper is ready for use.
+If you've already done this and the error persists, it might be a technical issue that can't be solved with the programming language. In this case, I recommend you to request clarification from the proctor of the experiment.
+I hope this helps! If you have any other questions or need further clarification, feel free to ask.
+</t>
+  </si>
+  <si>
+    <t>interaction_a4ac8889172b40c5bedcd0d0eb04b332</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:00:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+__Bot__: Hello, I'm Isaac, and I'm here to assist you with your robot programming task. 
+From your description, it seems like you're having an issue with the OnRobot smart gripper (RGX) not being connected. This error usually occurs when the robot is trying to execute a command that involves the gripper, but the gripper is not responding. 
+In the ABB Wizard Easy Programming Tool, there are custom blocks under the Procedures category to control the gripper, such as OpenGripper, CloseGripper, and RestartGripper. If you're facing an issue with the gripper, you can try to use the RestartGripper block to reset the gripper and see if it solves the problem. 
+Remember to click the Apply button at the top center of the programming environment to save your changes before running the program again. 
+If the problem persists, I recommend you to request clarification from the proctor of the experiment, as this might be a hardware issue that can't be solved with the programming language. 
+I hope this helps! If you have any other questions or if you need further clarification, feel free to ask.
+</t>
+  </si>
+  <si>
+    <t>interaction_ee80d9fa93e04414bf1b9fb8a30a2375</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:05:24</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:05:35</t>
+  </si>
+  <si>
+    <t>interaction_fd13063226ba4d54b9be05d161abf61e</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:02:36</t>
+  </si>
+  <si>
+    <t>02/05/2024 14:03:29</t>
+  </si>
+  <si>
+    <t>interaction_cd94f7af7324427e8c3a23419338df2d</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:56:21</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:49:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+__Bot__: Hello, I'm Isaac. I'm here to assist you with your robot programming task.
+Regarding your request, if you want to receive input from the FlexPendant touch screen, you can use the blocks under the "Message" category. There are two blocks that can be used to receive input from the user: 
+1. "Ask &lt;question&gt; with &lt;answer options&gt;. Save this answer in &lt;numeric variable&gt;": This block is used to ask a question with predefined answer options. The user's response is saved in a numeric variable.
+2. "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;": This block is used to ask a question that requires a numeric answer. The user's response is saved in a numeric variable.
+Please note that these blocks will create a pop-up message on the FlexPendant screen, and the user can interact with it by touching the screen. 
+If you need further assistance, feel free to ask.
+__Participant__: Can I use this as a variable?
+__Bot__: Sure, you can use variables in your program with the ABB Wizard Easy Programming Tool. There are three types of variables available: number, boolean, and string. You can use the "Set &lt;variable&gt; to" block to assign a value to your variable. You can also use the variable value block to use the value of a variable in your program. Remember to define your variables using the Data button on the top-right corner of the programming environment.
+__Participant__: But can I use the variables and the message together ?
+__Bot__: Yes, you can use variables and messages together in the ABB Wizard Easy Programming Tool. For instance, you can use the "Show &lt;message&gt; on FlexPendant" block from the Message category to display a message on the FlexPendant. The &lt;message&gt; can be a string variable that you have defined in your program using the Variable category. 
+Similarly, you can use the "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;" block to ask a question and save the user's response in a numeric variable. This variable can then be used in other parts of your program. 
+Remember to always click the Apply button to save your changes after you update your program.
+__Participant__: How do I get the stop to work with a if do ?
+__Bot__: To use the "Stop" block with an "If do" block in the ABB Wizard Easy Programming Tool, you need to follow these steps:
+1. First, you need to define a condition for your "If do" block. This condition can be based on a variable or a specific state of the robot. For example, you could use a boolean variable that becomes true when a certain event occurs.
+2. Once you have your condition, drag and drop the "If do" block from the Logic category into your program.
+3. In the "If do" block, insert your condition. The block should now read something like "If &lt;your condition&gt; do".
+4. Now, drag and drop the "Stop" block from the Stop &amp; Wait category into the "do" section of your "If do" block. 
+5. The final structure should look like this: "If &lt;your condition&gt; do, Stop".
+This means that if your condition is met during the execution of the program, the robot will stop its current action. Remember to press the "Apply" button to save your changes.
+__Participant__: How to use the signals ?
+__Bot__: Sure, I can help with that. The Signals category in the ABB Wizard Easy Programming Tool is used to set, send, and read digital and analog inputs and outputs. These signals can be used to communicate with external devices or to control certain aspects of the robot's operation.
+Here's a brief description of the blocks available under the Signals category:
+1. "Set digital output &lt;number&gt; to &lt;state&gt;": This block is used to set the state of a specific digital output. The state can be either true (on) or false (off).
+2. "Send digital output &lt;number&gt;": This block is used to send the current state of a specific digital output.
+3. "Read digital input &lt;number&gt;": This block is used to read the current state of a specific digital input.
+4. "Set analog output &lt;number&gt; to &lt;value&gt;": This block is used to set the value of a specific analog output.
+5. "Send analog output &lt;number&gt;": This block is used to send the current value of a specific analog output.
+6. "Read analog input &lt;number&gt;": This block is used to read the current value of a specific analog input.
+Remember, the number in each block refers to the specific input or output you want to interact with. The state or value you set or read will depend on the specific requirements of your program. 
+Please note that in our experiment, you should not physically interact with the robot or its inputs and outputs. All interactions should be done through the programming language. If you have any other questions, feel free to ask!
+__Participant__: How do I get a string from the message
+__Bot__: To get a string from a message in the ABB Wizard Easy Programming Tool, you can use the "Show &lt;message&gt; on FlexPendant" block from the Message category. This block will display the string message on the FlexPendant's screen. 
+However, if you want to get a string input from the user, you would need to use the "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;" block. This block will prompt the user with a question and save their numeric response in a variable. Unfortunately, the ABB Wizard Easy Programming Tool does not support receiving string inputs directly from the user. 
+Remember to click the "Apply" button at the top center of the programming environment to save your changes every time you make an update in your program solution.
+__Participant__: But I only got 40 characters ?
+__Bot__: I'm sorry, but I'm not sure what you're referring to with "40 characters". Could you please provide more context or clarify your question? Are you referring to a specific block or variable in the ABB Wizard Easy Programming Tool?
+__Participant__: When out printing a message I only have 40 characters how can I use the logic to say move left is 1 and move right is 2 ?
+__Bot__: Sure, you can use the "Show &lt;message&gt; on FlexPendant" block from the Message category to display a message. However, you're correct that there's a limit of 40 characters for this message. 
+To display the information "move left is 1 and move right is 2", you can simply use this block and insert the text directly. This message is less than 40 characters, so it should fit without any issues.
+If you want to use logic to display this message based on some conditions, you can use the "If &lt;condition&gt; do" or "If &lt;condition&gt; do, else" blocks from the Logic category. For example, if you have a numeric variable that represents the direction of movement (1 for left and 2 for right), you can use these blocks to display a different message based on the value of this variable.
+Here's an example:
+- If &lt;direction&gt; equals 1, Show "move left" on FlexPendant
+- Else, Show "move right" on FlexPendant
+Remember to click the Apply button to save your changes after setting up these blocks.
+__Participant__: How do I end the application instead of stop ?
+__Bot__: As an expert, I can tell you that in the ABB Wizard Easy Programming Tool, there isn't a specific block to end the application. However, you can use the "Stop" block from the "Stop &amp; Wait" category to halt the execution of the program. This block will stop the program execution immediately when it is reached in the program flow. 
+Remember, to actually stop the execution of the program, you will need to use the physical stop button on the FlexPendant. This is a safety feature to ensure the robot can be stopped immediately if needed. 
+If you have any other questions about the ABB Wizard Easy Programming Tool, feel free to ask!
+__Participant__: How do I copy multiple blocks
+__Bot__: To copy multiple blocks in the ABB Wizard Easy Programming Tool, you should follow these steps:
+1. Click and hold the left mouse button on an empty space in the programming environment.
+2. Drag the mouse to create a selection box around the blocks you want to copy.
+3. Release the mouse button. The selected blocks should now be highlighted.
+4. Right-click on one of the selected blocks and choose the "Copy" option from the context menu.
+5. Move your cursor to the location where you want to paste the copied blocks.
+6. Right-click on the empty space and choose the "Paste" option from the context menu.
+Remember to click the "Apply" button at the top center of the programming environment to save your changes after you've finished.
+__Participant__: What if I do not have a mouse ?
+__Bot__: As an expert named Isaac, I can tell you that you don't need a mouse to use the ABB Wizard Easy Programming Tool. The tool is designed to be used on the FlexPendant, which is a handheld device with a touchscreen interface. You can use your finger to select and move blocks around in the programming environment. The FlexPendant also has hard buttons that you can use to run and stop the program, move to the next instruction, or return to the previous instruction. So, even without a mouse, you should be able to complete your tasks in the experiment.
+__Participant__: 
+__Bot__: 1. Participant: "How can I make the robot move to a specific position?"
+   Isaac: To make the robot move to a specific position, you can use the blocks under the Move category. There are two types of movement blocks: "Move &lt;tool&gt; &lt;speed&gt; to &lt;somewhere&gt;" and "Move &lt;tool&gt; &lt;speed&gt; in a straight line to &lt;somewhere&gt;". You should replace &lt;tool&gt; with the tool you are using, &lt;speed&gt; with the speed of the movement, and &lt;somewhere&gt; with the position you want the robot to move to. Remember, the tool and speed should not be changed in this experiment, and the position should be selected from the pre-defined robot positions available.
+2. Participant: "I want to ask the user a question and save their answer. How can I do that?"
+   Isaac: You can use the blocks under the Message category to interact with the user. If you want to ask a question and save the answer, you can use either the "Ask &lt;question&gt; with &lt;answer options&gt;. Save this answer in &lt;numeric variable&gt;" block or the "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;" block. Replace &lt;question&gt; with your question, &lt;answer options&gt; with the options you want to give to the user, and &lt;numeric variable&gt; with the variable where you want to save the answer.
+3. Participant: "I'm not sure how to use the gripper. Can you help?"
+   Isaac: Sure, to control the gripper, you can use the custom blocks available under the Procedures category. There are three procedures available: OpenGripper, CloseGripper, and RestartGripper. You can use the "Call &lt;procedure&gt;" block to call these procedures. Replace &lt;procedure&gt; with the procedure you want to call. Remember, the RestartGripper procedure should be used only if an error occurs with the gripper.
+4. Participant: "I want to repeat a set of instructions a certain number of times. How can I do that?"
+   Isaac: To repeat a set of instructions, you can use the blocks under the Loops category. If you want to repeat a set of instructions a certain number of times, you can use the "Repeat &lt;number&gt; times" block. Replace &lt;number&gt; with the number of times you want to repeat the instructions. Then, you can place the blocks representing the instructions you want to repeat inside this loop block.
+5. Participant: "I'm facing a problem that I can't solve with the programming language. What should I do?"
+   Isaac: If you're facing a problem that can't be solved with the programming language, I recommend you request clarification from the proctor of the experiment. They should be able to assist you further.
+</t>
+  </si>
+  <si>
+    <t>interaction_28dbae0ab2f842d2ad083b69c5b4e946</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:37:34</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:37:55</t>
+  </si>
+  <si>
+    <t>interaction_2eff57504289455d996c275f82f6794d</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:38:00</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:46:36</t>
+  </si>
+  <si>
     <t>messages</t>
   </si>
   <si>
@@ -1906,6 +2315,74 @@
   </si>
   <si>
     <t xml:space="preserve">How do you insert a variable into the if block. It does not respond when i touch it
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I make the robot take a user's input?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I press start , the robot does not run. What should I do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I restart the gripper to be opened?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is the robot light red if it just in the center not doing anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok thank you
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the name of the booleon variable that checks if the dispenser is there or not
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are the current booleon names and what are they meant for
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to reset robot to original position
+</t>
+  </si>
+  <si>
+    <t>Can I use this as a variable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But can I use the variables and the message together ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I get the stop to work with a if do ? 
+</t>
+  </si>
+  <si>
+    <t>How to use the signals ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I get a string from the message 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I only got 40 characters ? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When out printing a message I only have 40 characters how can I use the logic to say move left is 1 and move right is 2 ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I end the application instead of stop ? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I copy multiple blocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if I do not have a mouse ? 
 </t>
   </si>
   <si>
@@ -2386,6 +2863,177 @@
 4. Click on the variable block in your workspace and name your variable in the field that appears.
 Remember, after you've instantiated your variable, you can set or change its value using the 'Set &lt;variable&gt; to' block, which is also found in the 'Variable' category. 
 Let me know if you need further assistance!</t>
+  </si>
+  <si>
+    <t>Hello, I'm Isaac, and I'm here to assist you with your robot programming task. 
+It sounds like you're experiencing a couple of different issues. Let's tackle them one at a time.
+First, regarding the infinite loop, it's important to check the conditions of your loop. If you're using the "Repeat &lt;number&gt; times" block, make sure the number is not too high or set to an infinite value. If you're using the "Repeat &lt;while or until&gt; &lt;condition&gt;" block, ensure that the condition will eventually be met to break the loop. 
+Second, about the robot not moving, ensure that you've correctly set up your move blocks. The "Move &lt;tool&gt; &lt;speed&gt; to &lt;somewhere&gt;" block requires a tool, speed, and position as input. Make sure you've selected the correct tool and speed, and that the position you've chosen is reachable by the robot. 
+If you've done all of this and the robot still isn't moving, it's possible that there's an issue with the order of your blocks or the logic of your program. Remember to use the Apply button to save your changes every time you update your program.
+If you're still having trouble, could you please provide more details about your program? That way, I can give more specific advice.</t>
+  </si>
+  <si>
+    <t>1. How can I use the ABB Wizard Easy Programming Tool to program the ABB CRB 15000 robot?
+Answer: The ABB Wizard Easy Programming Tool is a block-based programming interface that you can use to program the ABB CRB 15000 robot. You can use different categories of blocks to create your program. These categories include Message, Move, Stop &amp; Wait, Procedures, Loops, Signals, Logic, and Variable. 
+For example, you can use the Move category to move the robot. Every movement block receives a tool, speed, and position as input. You can use the Procedures category to define and call custom functions in your program. There are also blocks for loops, signals, and logic operations. 
+Remember to use the Apply button to save your changes every time you make an update in your program. To run and stop the program, use the hard buttons available on the FlexPendant.
+2. How can I use the OnRobot smart gripper with the ABB Wizard Easy Programming Tool?
+Answer: The OnRobot smart gripper can be controlled using the Procedures category in the ABB Wizard Easy Programming Tool. There are three custom procedures available for the gripper: OpenGripper, CloseGripper, and RestartGripper. You can use these procedures to open, close, and restart the gripper as needed in your program. 
+3. What should I do if I encounter a problem that I can't solve with the programming language?
+Answer: If you encounter a problem that you can't solve with the ABB Wizard Easy Programming Tool, you should request clarification from the proctor of the experiment. They will be able to provide further assistance.</t>
+  </si>
+  <si>
+    <t>You can use the blocks under the Message category in the ABB Wizard Easy Programming Tool to take a user's input. There are two blocks that can be used for this purpose:
+1. "Ask &lt;question&gt; with &lt;answer options&gt;. Save this answer in &lt;numeric variable&gt;": This block is used to ask the user a question with predefined answer options. The user's response is saved in a numeric variable.
+2. "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;": This block is used to ask the user a question that requires a numeric answer. The user's response is saved in a numeric variable.
+Remember to replace the &lt;question&gt;, &lt;answer options&gt;, and &lt;numeric variable&gt; with the appropriate values for your program. After you've added these blocks to your program, make sure to click the Apply button at the top center of the programming environment to save your changes.</t>
+  </si>
+  <si>
+    <t>Based on your description, it seems like the robot is not responding to the start command. Here are a few steps you can take to troubleshoot this issue:
+1. Check your program: Make sure that your program is correctly structured and doesn't contain any errors. The ABB Wizard Easy Programming Tool should highlight any syntax errors or missing blocks in your program.
+2. Apply changes: Remember to press the "Apply" button at the top center of the programming environment after making changes to your program. This will save your changes and update the program that the robot will run.
+3. Check the Event Log: If the robot still doesn't run your program, check the Event Log. This can be found next to the Messages button on the top left corner of the programming environment. The Event Log will contain any error messages or warnings that the robot's operating system has reported.
+4. Restart the program: If there are no errors in your program and the robot still doesn't run, try stopping the program using the stop button on the FlexPendant, and then start it again.
+If you've tried all these steps and the robot still doesn't run your program, please ask the proctor of the experiment for further assistance.</t>
+  </si>
+  <si>
+    <t>You can restart the gripper by using the custom procedure block named "RestartGripper". This block is available under the Procedures category in the ABB Wizard Easy Programming Tool. After calling this procedure, you can open the gripper by calling the "OpenGripper" procedure, also found in the Procedures category. Remember to click the "Apply" button at the top center of the programming environment to save your changes after adding these blocks to your program.</t>
+  </si>
+  <si>
+    <t>The robot's light turning red typically indicates an error or a safety stop. However, in the context of this experiment, participants should not physically interact with the robot. If the robot's light is red and it's not performing any tasks, it might be due to an error in the program. I would recommend checking the Event Log on the FlexPendant to see if there are any error messages. If the issue persists and can't be resolved through the programming language, please request clarification from the proctor of the experiment.</t>
+  </si>
+  <si>
+    <t>Hello, I'm Isaac. I'm here to assist you with your robot programming task.
+If your robot is stuck in a position and not moving, it could be due to a few reasons. Here are some steps you can take to troubleshoot:
+1. Check your program: Make sure that there are no blocks in your program that could be causing the robot to stop or wait indefinitely. For example, a "Stop" block or a "Wait until the robot has reached a stopping point" block could cause the robot to stop moving. 
+2. Check for errors: Use the Event Log button on the top left corner of the programming environment to check for any error messages. If there are any errors, they could be preventing the robot from moving.
+3. Check the robot's position: Make sure that the position you're trying to move the robot to is reachable. If the position is out of the robot's range, it won't be able to move there.
+4. Restart the program: If none of the above steps work, try restarting your program. Use the hard buttons on the FlexPendant to stop the program, and then start it again.
+If you're still having trouble after trying these steps, please let me know so I can assist you further.</t>
+  </si>
+  <si>
+    <t>Hello, I'm Isaac, and I'm here to assist you with your robot programming task. 
+To achieve your goal, you can use a combination of the Move, Logic, and Stop &amp; Wait blocks. 
+Firstly, you would need to use the Move block to direct the robot to the location of the dispenser at the bottom. If the dispenser isn't there, you can use the Logic block to instruct the robot to move in a different direction. 
+The Logic block can be used to create conditional statements in your program. For example, you can use it to check if a dispenser is present or not. If the dispenser is not present (which can be represented as a boolean value of 'false'), the robot can be instructed to move in a different direction.
+Boolean values are a type of data that can only be true or false. In your case, you can use a boolean variable to represent whether a dispenser is present or not. If the dispenser is present, the boolean value would be 'true'. If the dispenser is not present, the boolean value would be 'false'.
+Once all the dispensers have been taken care of, you can use the Stop block from the Stop &amp; Wait category to stop the robot.
+Remember to use the Apply button to save your changes every time you make an update in your program solution. If you have any more questions or need further clarification, feel free to ask.</t>
+  </si>
+  <si>
+    <t>I'm sorry for the confusion, but the information provided does not specify a boolean variable that checks if a dispenser is present or not. Could you please provide more details or clarify your question?</t>
+  </si>
+  <si>
+    <t>The ABB Wizard Easy Programming Tool does not have predefined boolean names. Boolean variables are created by the user in the Variable category. The purpose of these boolean variables is to store true or false values, which can be used to control the flow of the program, such as in conditional statements or loops. For example, a boolean variable could be used to indicate whether an object has been successfully picked up by the gripper or not. The specific purpose of each boolean variable depends on how it is used in the program.</t>
+  </si>
+  <si>
+    <t>To reset the robot to its original position, you would use the "Move" block from the Move category in the ABB Wizard Easy Programming Tool. You would need to specify the tool, speed, and the original position as inputs to the block. 
+Here's how you can do it:
+1. Drag and drop the "Move &lt;tool&gt; &lt;speed&gt; to &lt;somewhere&gt;" block from the Move category into your program.
+2. For the &lt;tool&gt; input, select the tool that the robot is currently using. In this experiment, it should be the OnRobot smart gripper.
+3. For the &lt;speed&gt; input, select the speed at which you want the robot to move. In this experiment, you should not change the speed block.
+4. For the &lt;somewhere&gt; input, select the original position of the robot. The original position should be one of the pre-defined robot positions available in the experiment.
+Remember to click the "Apply" button at the top center of the programming environment to save your changes. 
+Please note that you should not physically interact with the robot or manually teach the robot positions. All the necessary positions are given in advance for this experiment.</t>
+  </si>
+  <si>
+    <t>Hello, I'm Isaac, your guide for the ABB Wizard Easy Programming Tool. I'm here to assist you with your programming task.
+Regarding your issue, it seems like you're having trouble with the OnRobot smart gripper, which is referred to as RGX in the error message. This error usually occurs when the gripper is not properly connected or initialized in the program.
+In the ABB Wizard Easy Programming Tool, we have custom blocks under the Procedures category to control the gripper. Before you can use the gripper, you need to initialize it using the RestartGripper procedure. This procedure should be placed at the beginning of your program to ensure the gripper is ready for use.
+If you've already done this and the error persists, it might be a technical issue that can't be solved with the programming language. In this case, I recommend you to request clarification from the proctor of the experiment.
+I hope this helps! If you have any other questions or need further clarification, feel free to ask.</t>
+  </si>
+  <si>
+    <t>Hello, I'm Isaac, and I'm here to assist you with your robot programming task. 
+From your description, it seems like you're having an issue with the OnRobot smart gripper (RGX) not being connected. This error usually occurs when the robot is trying to execute a command that involves the gripper, but the gripper is not responding. 
+In the ABB Wizard Easy Programming Tool, there are custom blocks under the Procedures category to control the gripper, such as OpenGripper, CloseGripper, and RestartGripper. If you're facing an issue with the gripper, you can try to use the RestartGripper block to reset the gripper and see if it solves the problem. 
+Remember to click the Apply button at the top center of the programming environment to save your changes before running the program again. 
+If the problem persists, I recommend you to request clarification from the proctor of the experiment, as this might be a hardware issue that can't be solved with the programming language. 
+I hope this helps! If you have any other questions or if you need further clarification, feel free to ask.</t>
+  </si>
+  <si>
+    <t>Hello, I'm Isaac. I'm here to assist you with your robot programming task.
+Regarding your request, if you want to receive input from the FlexPendant touch screen, you can use the blocks under the "Message" category. There are two blocks that can be used to receive input from the user: 
+1. "Ask &lt;question&gt; with &lt;answer options&gt;. Save this answer in &lt;numeric variable&gt;": This block is used to ask a question with predefined answer options. The user's response is saved in a numeric variable.
+2. "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;": This block is used to ask a question that requires a numeric answer. The user's response is saved in a numeric variable.
+Please note that these blocks will create a pop-up message on the FlexPendant screen, and the user can interact with it by touching the screen. 
+If you need further assistance, feel free to ask.</t>
+  </si>
+  <si>
+    <t>Sure, you can use variables in your program with the ABB Wizard Easy Programming Tool. There are three types of variables available: number, boolean, and string. You can use the "Set &lt;variable&gt; to" block to assign a value to your variable. You can also use the variable value block to use the value of a variable in your program. Remember to define your variables using the Data button on the top-right corner of the programming environment.</t>
+  </si>
+  <si>
+    <t>Yes, you can use variables and messages together in the ABB Wizard Easy Programming Tool. For instance, you can use the "Show &lt;message&gt; on FlexPendant" block from the Message category to display a message on the FlexPendant. The &lt;message&gt; can be a string variable that you have defined in your program using the Variable category. 
+Similarly, you can use the "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;" block to ask a question and save the user's response in a numeric variable. This variable can then be used in other parts of your program. 
+Remember to always click the Apply button to save your changes after you update your program.</t>
+  </si>
+  <si>
+    <t>To use the "Stop" block with an "If do" block in the ABB Wizard Easy Programming Tool, you need to follow these steps:
+1. First, you need to define a condition for your "If do" block. This condition can be based on a variable or a specific state of the robot. For example, you could use a boolean variable that becomes true when a certain event occurs.
+2. Once you have your condition, drag and drop the "If do" block from the Logic category into your program.
+3. In the "If do" block, insert your condition. The block should now read something like "If &lt;your condition&gt; do".
+4. Now, drag and drop the "Stop" block from the Stop &amp; Wait category into the "do" section of your "If do" block. 
+5. The final structure should look like this: "If &lt;your condition&gt; do, Stop".
+This means that if your condition is met during the execution of the program, the robot will stop its current action. Remember to press the "Apply" button to save your changes.</t>
+  </si>
+  <si>
+    <t>Sure, I can help with that. The Signals category in the ABB Wizard Easy Programming Tool is used to set, send, and read digital and analog inputs and outputs. These signals can be used to communicate with external devices or to control certain aspects of the robot's operation.
+Here's a brief description of the blocks available under the Signals category:
+1. "Set digital output &lt;number&gt; to &lt;state&gt;": This block is used to set the state of a specific digital output. The state can be either true (on) or false (off).
+2. "Send digital output &lt;number&gt;": This block is used to send the current state of a specific digital output.
+3. "Read digital input &lt;number&gt;": This block is used to read the current state of a specific digital input.
+4. "Set analog output &lt;number&gt; to &lt;value&gt;": This block is used to set the value of a specific analog output.
+5. "Send analog output &lt;number&gt;": This block is used to send the current value of a specific analog output.
+6. "Read analog input &lt;number&gt;": This block is used to read the current value of a specific analog input.
+Remember, the number in each block refers to the specific input or output you want to interact with. The state or value you set or read will depend on the specific requirements of your program. 
+Please note that in our experiment, you should not physically interact with the robot or its inputs and outputs. All interactions should be done through the programming language. If you have any other questions, feel free to ask!</t>
+  </si>
+  <si>
+    <t>To get a string from a message in the ABB Wizard Easy Programming Tool, you can use the "Show &lt;message&gt; on FlexPendant" block from the Message category. This block will display the string message on the FlexPendant's screen. 
+However, if you want to get a string input from the user, you would need to use the "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;" block. This block will prompt the user with a question and save their numeric response in a variable. Unfortunately, the ABB Wizard Easy Programming Tool does not support receiving string inputs directly from the user. 
+Remember to click the "Apply" button at the top center of the programming environment to save your changes every time you make an update in your program solution.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I'm not sure what you're referring to with "40 characters". Could you please provide more context or clarify your question? Are you referring to a specific block or variable in the ABB Wizard Easy Programming Tool?</t>
+  </si>
+  <si>
+    <t>Sure, you can use the "Show &lt;message&gt; on FlexPendant" block from the Message category to display a message. However, you're correct that there's a limit of 40 characters for this message. 
+To display the information "move left is 1 and move right is 2", you can simply use this block and insert the text directly. This message is less than 40 characters, so it should fit without any issues.
+If you want to use logic to display this message based on some conditions, you can use the "If &lt;condition&gt; do" or "If &lt;condition&gt; do, else" blocks from the Logic category. For example, if you have a numeric variable that represents the direction of movement (1 for left and 2 for right), you can use these blocks to display a different message based on the value of this variable.
+Here's an example:
+- If &lt;direction&gt; equals 1, Show "move left" on FlexPendant
+- Else, Show "move right" on FlexPendant
+Remember to click the Apply button to save your changes after setting up these blocks.</t>
+  </si>
+  <si>
+    <t>As an expert, I can tell you that in the ABB Wizard Easy Programming Tool, there isn't a specific block to end the application. However, you can use the "Stop" block from the "Stop &amp; Wait" category to halt the execution of the program. This block will stop the program execution immediately when it is reached in the program flow. 
+Remember, to actually stop the execution of the program, you will need to use the physical stop button on the FlexPendant. This is a safety feature to ensure the robot can be stopped immediately if needed. 
+If you have any other questions about the ABB Wizard Easy Programming Tool, feel free to ask!</t>
+  </si>
+  <si>
+    <t>To copy multiple blocks in the ABB Wizard Easy Programming Tool, you should follow these steps:
+1. Click and hold the left mouse button on an empty space in the programming environment.
+2. Drag the mouse to create a selection box around the blocks you want to copy.
+3. Release the mouse button. The selected blocks should now be highlighted.
+4. Right-click on one of the selected blocks and choose the "Copy" option from the context menu.
+5. Move your cursor to the location where you want to paste the copied blocks.
+6. Right-click on the empty space and choose the "Paste" option from the context menu.
+Remember to click the "Apply" button at the top center of the programming environment to save your changes after you've finished.</t>
+  </si>
+  <si>
+    <t>As an expert named Isaac, I can tell you that you don't need a mouse to use the ABB Wizard Easy Programming Tool. The tool is designed to be used on the FlexPendant, which is a handheld device with a touchscreen interface. You can use your finger to select and move blocks around in the programming environment. The FlexPendant also has hard buttons that you can use to run and stop the program, move to the next instruction, or return to the previous instruction. So, even without a mouse, you should be able to complete your tasks in the experiment.</t>
+  </si>
+  <si>
+    <t>1. Participant: "How can I make the robot move to a specific position?"
+   Isaac: To make the robot move to a specific position, you can use the blocks under the Move category. There are two types of movement blocks: "Move &lt;tool&gt; &lt;speed&gt; to &lt;somewhere&gt;" and "Move &lt;tool&gt; &lt;speed&gt; in a straight line to &lt;somewhere&gt;". You should replace &lt;tool&gt; with the tool you are using, &lt;speed&gt; with the speed of the movement, and &lt;somewhere&gt; with the position you want the robot to move to. Remember, the tool and speed should not be changed in this experiment, and the position should be selected from the pre-defined robot positions available.
+2. Participant: "I want to ask the user a question and save their answer. How can I do that?"
+   Isaac: You can use the blocks under the Message category to interact with the user. If you want to ask a question and save the answer, you can use either the "Ask &lt;question&gt; with &lt;answer options&gt;. Save this answer in &lt;numeric variable&gt;" block or the "Ask &lt;question&gt; with a numeric answer. Save the answer in &lt;numeric variable&gt;" block. Replace &lt;question&gt; with your question, &lt;answer options&gt; with the options you want to give to the user, and &lt;numeric variable&gt; with the variable where you want to save the answer.
+3. Participant: "I'm not sure how to use the gripper. Can you help?"
+   Isaac: Sure, to control the gripper, you can use the custom blocks available under the Procedures category. There are three procedures available: OpenGripper, CloseGripper, and RestartGripper. You can use the "Call &lt;procedure&gt;" block to call these procedures. Replace &lt;procedure&gt; with the procedure you want to call. Remember, the RestartGripper procedure should be used only if an error occurs with the gripper.
+4. Participant: "I want to repeat a set of instructions a certain number of times. How can I do that?"
+   Isaac: To repeat a set of instructions, you can use the blocks under the Loops category. If you want to repeat a set of instructions a certain number of times, you can use the "Repeat &lt;number&gt; times" block. Replace &lt;number&gt; with the number of times you want to repeat the instructions. Then, you can place the blocks representing the instructions you want to repeat inside this loop block.
+5. Participant: "I'm facing a problem that I can't solve with the programming language. What should I do?"
+   Isaac: If you're facing a problem that can't be solved with the programming language, I recommend you request clarification from the proctor of the experiment. They should be able to assist you further.</t>
   </si>
 </sst>
 </file>
@@ -2441,16 +3089,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2754,13 +3396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +3421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2828,7 +3472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2862,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2879,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2896,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2913,7 +3557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2930,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2947,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2964,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2981,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2998,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3015,7 +3659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3032,7 +3676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3049,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3066,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3083,7 +3727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3100,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3117,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3134,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -3151,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3168,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -3185,7 +3829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -3202,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -3236,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -3251,6 +3895,125 @@
       </c>
       <c r="E29">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3260,15 +4023,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3280,51 +4045,51 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3339,33 +4104,33 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3380,33 +4145,33 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3421,33 +4186,33 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3462,33 +4227,33 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3503,33 +4268,33 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3544,33 +4309,33 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3585,33 +4350,33 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" t="s">
-        <v>118</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3626,33 +4391,33 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3667,33 +4432,33 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3708,33 +4473,33 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -3749,33 +4514,33 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3790,33 +4555,33 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3831,30 +4596,30 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -3869,33 +4634,33 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3910,33 +4675,33 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3951,33 +4716,33 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3992,33 +4757,33 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4033,33 +4798,33 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4074,33 +4839,33 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -4115,33 +4880,33 @@
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -4156,33 +4921,33 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4197,30 +4962,30 @@
         <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4235,24 +5000,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4267,30 +5032,30 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4305,33 +5070,33 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -4346,33 +5111,33 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4387,33 +5152,33 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4428,33 +5193,33 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4469,33 +5234,33 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4510,13 +5275,247 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M37" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4526,18 +5525,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4549,164 +5550,164 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -4715,33 +5716,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -4750,62 +5751,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -4814,30 +5815,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I10" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -4846,33 +5847,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I11" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -4881,140 +5882,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
         <v>291</v>
       </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" t="s">
-        <v>246</v>
-      </c>
       <c r="I15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I16" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -5023,33 +6024,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I17" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -5058,207 +6059,207 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I24" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -5267,82 +6268,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I26" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="H27" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -5351,30 +6352,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I28" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -5383,33 +6384,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -5418,33 +6419,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="E30" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I30" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -5453,33 +6454,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I31" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -5488,33 +6489,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I32" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -5523,33 +6524,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I33" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -5558,62 +6559,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="E34" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -5622,33 +6623,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I36" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -5657,178 +6658,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="E37" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="E38" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="E39" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="E40" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="E41" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I42" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -5837,120 +6838,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E43" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="E44" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="E45" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G45" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="E46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -5959,62 +6960,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="E47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="E48" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -6023,33 +7024,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="E49" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -6058,30 +7059,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="E50" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -6090,143 +7091,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="E52" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G52" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G53" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I53" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
         <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="E54" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G54" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="E55" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -6235,30 +7236,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="F56" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -6267,33 +7268,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="E57" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6302,33 +7303,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
         <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="E58" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I58" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -6337,39 +7338,388 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="F59" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I59" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
         <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>492</v>
+      </c>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>493</v>
+      </c>
+      <c r="F60" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>496</v>
+      </c>
+      <c r="E61" t="s">
+        <v>497</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
+        <v>263</v>
+      </c>
+      <c r="H61" t="s">
+        <v>308</v>
+      </c>
+      <c r="I61" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>499</v>
+      </c>
+      <c r="B62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="s">
+        <v>500</v>
+      </c>
+      <c r="E62" t="s">
+        <v>501</v>
+      </c>
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>503</v>
+      </c>
+      <c r="B63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>504</v>
+      </c>
+      <c r="E63" t="s">
+        <v>505</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>506</v>
+      </c>
+      <c r="B64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>507</v>
+      </c>
+      <c r="E64" t="s">
+        <v>508</v>
+      </c>
+      <c r="F64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64" t="s">
+        <v>308</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>510</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>511</v>
+      </c>
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65" t="s">
+        <v>308</v>
+      </c>
+      <c r="I65" t="s">
+        <v>512</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>513</v>
+      </c>
+      <c r="B66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>514</v>
+      </c>
+      <c r="E66" t="s">
+        <v>515</v>
+      </c>
+      <c r="F66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" t="s">
+        <v>296</v>
+      </c>
+      <c r="I66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>517</v>
+      </c>
+      <c r="E67" t="s">
+        <v>518</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" t="s">
+        <v>520</v>
+      </c>
+      <c r="E68" t="s">
+        <v>521</v>
+      </c>
+      <c r="F68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" t="s">
+        <v>522</v>
+      </c>
+      <c r="J68">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>523</v>
+      </c>
+      <c r="B69" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>524</v>
+      </c>
+      <c r="E69" t="s">
+        <v>525</v>
+      </c>
+      <c r="F69" t="s">
+        <v>280</v>
+      </c>
+      <c r="G69" t="s">
+        <v>279</v>
+      </c>
+      <c r="H69" t="s">
+        <v>296</v>
+      </c>
+      <c r="I69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>526</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>527</v>
+      </c>
+      <c r="E70" t="s">
+        <v>528</v>
+      </c>
+      <c r="F70" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" t="s">
+        <v>279</v>
+      </c>
+      <c r="H70" t="s">
+        <v>296</v>
+      </c>
+      <c r="I70" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6379,319 +7729,469 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="104.26171875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.26171875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>447</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>448</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>530</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>449</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>531</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>450</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>532</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>451</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>533</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>452</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>534</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>453</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>535</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>454</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>536</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>455</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>537</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>456</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>538</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>457</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>539</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>458</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>540</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>459</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>541</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>460</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>542</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>461</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>543</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>462</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>544</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
-        <v>463</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>545</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>464</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>546</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>465</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>547</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>466</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>548</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>467</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>549</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
-        <v>468</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>550</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
-        <v>469</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>551</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>470</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>552</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
-        <v>471</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>553</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>472</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>554</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>473</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>555</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>474</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>556</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
-        <v>475</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>557</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>476</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>558</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
-        <v>477</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>559</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>478</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>560</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
-        <v>479</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>561</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
-        <v>480</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>562</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
-        <v>481</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>563</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
-        <v>482</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>564</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>565</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>566</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>567</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>568</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>571</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>573</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>574</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>575</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>576</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>577</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>578</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>579</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>580</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>581</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6701,567 +8201,770 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="96.05078125" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>447</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>483</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>583</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>484</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>584</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>485</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>585</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>486</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>586</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>487</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>587</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>488</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>588</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>489</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>589</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>490</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>590</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>491</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>591</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>492</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>592</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>493</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>593</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>494</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>594</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>495</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>595</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>496</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>596</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>497</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>597</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
-        <v>498</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>598</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>499</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>599</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>500</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>600</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>501</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>601</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
-        <v>502</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>602</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>503</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>603</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>504</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>604</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
-        <v>505</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>605</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
-        <v>506</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>606</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>507</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>607</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
-        <v>508</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>608</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>509</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>609</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>510</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>610</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>511</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>611</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
-        <v>512</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>612</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>513</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>613</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
-        <v>514</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>614</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>515</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>615</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
-        <v>516</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>616</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
-        <v>517</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>617</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
-        <v>518</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>618</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
-        <v>519</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>619</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
-        <v>520</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>620</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
-        <v>521</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>621</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
-        <v>522</v>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>622</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>523</v>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>623</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
-        <v>524</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>624</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
-        <v>525</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>625</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
-        <v>526</v>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>626</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
-        <v>527</v>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>627</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
-        <v>528</v>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>628</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
-        <v>529</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>629</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
-        <v>530</v>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>630</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
-        <v>531</v>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>631</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>532</v>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>632</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
-        <v>533</v>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>633</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>534</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>634</v>
       </c>
       <c r="B53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
-        <v>535</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>635</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
-        <v>536</v>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>636</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
-        <v>537</v>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>637</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>538</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>638</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
-        <v>539</v>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>639</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
-        <v>540</v>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>640</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>541</v>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>641</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
-        <v>542</v>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>642</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
-        <v>543</v>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>643</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
-        <v>544</v>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>644</v>
       </c>
       <c r="B63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
-        <v>545</v>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>645</v>
       </c>
       <c r="B64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
-        <v>546</v>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>646</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
-        <v>547</v>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>647</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
-        <v>548</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>648</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
-        <v>549</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>649</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
-        <v>550</v>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>650</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>651</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>652</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>653</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>654</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>655</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>657</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>658</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>592</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>659</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>660</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>661</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>662</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>663</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>664</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>665</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>666</v>
+      </c>
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>667</v>
+      </c>
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>668</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>669</v>
+      </c>
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>670</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>671</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>672</v>
+      </c>
+      <c r="B92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>673</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>674</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>675</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
